--- a/stage_1/Formulas_Functions/Formulas_functions.xlsx
+++ b/stage_1/Formulas_Functions/Formulas_functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Beginners/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{9130C8AF-4345-45BE-8EBA-D3CE30247DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19065FFB-E0A9-4CCF-8F7D-7356BCC5DD36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74BFC0-AEAB-4BE8-85DF-BD917B20893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D65FF853-2800-49D2-ADA6-489BE9547E09}"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -321,7 +321,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -679,23 +679,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F30019-4F52-4BA0-AE58-453B45939140}">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="10"/>
       <c r="C2" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
@@ -711,7 +711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
@@ -719,7 +719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
@@ -735,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
@@ -743,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -767,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
@@ -775,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -791,11 +791,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12">
+        <f xml:space="preserve"> SUM(C3:C14)</f>
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -811,19 +814,19 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
@@ -831,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
@@ -839,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="14" t="s">
         <v>28</v>
       </c>
@@ -847,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14" t="s">
         <v>29</v>
       </c>
@@ -868,23 +871,23 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1"/>
+    <col min="5" max="5" width="18.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="26" x14ac:dyDescent="0.65">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -898,7 +901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="26" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -912,7 +915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -926,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.65">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -940,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.65">
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
@@ -954,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.65">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
